--- a/TestDataFile/hrmexel.xlsx
+++ b/TestDataFile/hrmexel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC1378-F300-42FA-BA19-BA5BC816710B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B51909-9113-45A8-9488-9C34B3D9114E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>url</t>
   </si>
@@ -38,13 +38,19 @@
   </si>
   <si>
     <t>abcd1234</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>I will put leave for 2 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +66,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -90,6 +110,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -371,29 +395,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -402,6 +430,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -409,5 +440,6 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{ED5A1183-2911-4978-9AAB-20CD0E0D7F8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>